--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\Project2Groep5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\Project2Groep5\Ricardini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -1087,10 +1087,10 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1896,7 +1896,9 @@
       <c r="F20" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="2"/>
+      <c r="G20" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -1087,10 +1087,10 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1454,7 +1454,9 @@
       <c r="F9" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\Project2Groep5\Ricardini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2P STUDIO KES\Documents\GitHub\Project2Groep5\Ricardini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
     <sheet name="SRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
+    <sheet name="sprint 3 BACKLOG" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$4</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -421,6 +422,66 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>SPRINT 3 BACKLOG</t>
+  </si>
+  <si>
+    <t>As a user I want 3 options in win screen, go to 'High score', 'Menu' or 'Play again" so that i can see my highscore or go back to main menu and play again.</t>
+  </si>
+  <si>
+    <t>1. All buttons work without error                                                                     2. The player can go back to the menu, see highscore or play again                                                                           3.highscore is player has been save.</t>
+  </si>
+  <si>
+    <t>As a user I want to pause and resume game when i want to have a break.</t>
+  </si>
+  <si>
+    <t>1. Write a code that shows a pause button in gameplay screen.                                                                                                   2. Write a code that make the pause button pause the game.                                                                 3. Write a code that let the player continue the game if pause button click-again (while on pause)</t>
+  </si>
+  <si>
+    <t>1. There is a pause-button in Gameplay screen.                                                                                   2. When player click on the button it pause the game.                                                                          3. When player click button again, the player can continue the game (while on pause)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a code that save highscore                                                                                  2.Write a code that adjusts highscore when a player has new highscore                                                                                   3. write a code that makes the saving-highscore code works with the highscore-button                                                                                                                                                                                                                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a user I want high score menu which automatically adjusts so that I can view my highscore. </t>
+  </si>
+  <si>
+    <t>As a user I want to hear sounds for every interaction in game so the game will be more attractive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. write a code that add sounds-effect to the gameplay                                      2. make sure the sounds are different for every action in game                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. every different action have a different sounds (not button-click include)                                                                       2. Player can hear sound while playing                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. write a code that show a option-button that let the player choose against CPU.                                                        2.design a proper button for the cpu options. </t>
+  </si>
+  <si>
+    <t>1. button is clickable                                                                  2. Button has a proper design</t>
+  </si>
+  <si>
+    <t>As a user I want to have a option-button to play against computer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. the player can save there current game.                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                </t>
+  </si>
+  <si>
+    <t>1.Write a code that will let the player load the previous saved game                                                                                       2. make a proper button for this option.</t>
+  </si>
+  <si>
+    <t>1. write a code that save the current game state.                                                                            2. design a proper - button for this option</t>
+  </si>
+  <si>
+    <t>1. the player can load previous saved game and play again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a code that have 3 buttons  where you can go back to main menu , see highscore and play again                                                                                                                                                       2. Write a code that show highscore                                                                                        </t>
   </si>
 </sst>
 </file>
@@ -1086,11 +1147,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -31864,8 +31925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32278,4 +32339,213 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="43">
+        <v>18</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="48">
+        <v>20</v>
+      </c>
+      <c r="E3" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43">
+        <v>19</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="48"/>
+      <c r="E4" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="43">
+        <v>20</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="48">
+        <v>20</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="43">
+        <v>21</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="48">
+        <v>20</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" s="41" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="43">
+        <v>23</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="48">
+        <v>13</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="43">
+        <v>25</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="48">
+        <v>20</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="43">
+        <v>26</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="48">
+        <v>20</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="43"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2P STUDIO KES\Documents\GitHub\Project2Groep5\Ricardini\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ricardo\Documents\GitHub\Project2Groep5\Ricardini\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,8 @@
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 1 BACKLOG" sheetId="2" r:id="rId2"/>
-    <sheet name="SRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
-    <sheet name="sprint 3 BACKLOG" sheetId="4" r:id="rId4"/>
+    <sheet name="SPRINT 2 BACKLOG" sheetId="3" r:id="rId3"/>
+    <sheet name="SPRINT 3 BACKLOG" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRODUCT BACKLOG'!$A$2:$B$4</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="150">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -427,40 +427,13 @@
     <t>SPRINT 3 BACKLOG</t>
   </si>
   <si>
-    <t>As a user I want 3 options in win screen, go to 'High score', 'Menu' or 'Play again" so that i can see my highscore or go back to main menu and play again.</t>
-  </si>
-  <si>
-    <t>1. All buttons work without error                                                                     2. The player can go back to the menu, see highscore or play again                                                                           3.highscore is player has been save.</t>
-  </si>
-  <si>
     <t>As a user I want to pause and resume game when i want to have a break.</t>
-  </si>
-  <si>
-    <t>1. Write a code that shows a pause button in gameplay screen.                                                                                                   2. Write a code that make the pause button pause the game.                                                                 3. Write a code that let the player continue the game if pause button click-again (while on pause)</t>
-  </si>
-  <si>
-    <t>1. There is a pause-button in Gameplay screen.                                                                                   2. When player click on the button it pause the game.                                                                          3. When player click button again, the player can continue the game (while on pause)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Write a code that save highscore                                                                                  2.Write a code that adjusts highscore when a player has new highscore                                                                                   3. write a code that makes the saving-highscore code works with the highscore-button                                                                                                                                                                                                                                                                                  </t>
   </si>
   <si>
     <t xml:space="preserve">As a user I want high score menu which automatically adjusts so that I can view my highscore. </t>
   </si>
   <si>
     <t>As a user I want to hear sounds for every interaction in game so the game will be more attractive.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. write a code that add sounds-effect to the gameplay                                      2. make sure the sounds are different for every action in game                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. every different action have a different sounds (not button-click include)                                                                       2. Player can hear sound while playing                                                             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. write a code that show a option-button that let the player choose against CPU.                                                        2.design a proper button for the cpu options. </t>
-  </si>
-  <si>
-    <t>1. button is clickable                                                                  2. Button has a proper design</t>
   </si>
   <si>
     <t>As a user I want to have a option-button to play against computer.</t>
@@ -472,16 +445,46 @@
     <t xml:space="preserve">                                </t>
   </si>
   <si>
-    <t>1.Write a code that will let the player load the previous saved game                                                                                       2. make a proper button for this option.</t>
-  </si>
-  <si>
-    <t>1. write a code that save the current game state.                                                                            2. design a proper - button for this option</t>
-  </si>
-  <si>
     <t>1. the player can load previous saved game and play again.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Write a code that have 3 buttons  where you can go back to main menu , see highscore and play again                                                                                                                                                       2. Write a code that show highscore                                                                                        </t>
+    <t xml:space="preserve">1 Write a code that have 3 buttons: "Main menu, "Highscore", "Play again"                                                                                                                                                    2. Write a code that shows highscores                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Create a pause button                                                                                               2. Create a resume button                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a code that saves highscores                                                                                  2.Write a code that adjusts the highscores                                                                                                                                                                                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Write a code that shows a button to play against the computer.                                                                        </t>
+  </si>
+  <si>
+    <t>1. Write a code that shows a button to play against the computer.</t>
+  </si>
+  <si>
+    <t>1. Write a code that saves the current game</t>
+  </si>
+  <si>
+    <t>1.Write a code that will let the player load the previous saved game</t>
+  </si>
+  <si>
+    <t>1. Button is clickable                                                                  2. Button links to a different page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Player can hear sound while playing                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Highscores are saved                                                  2. Highscores adjust automatically                                  </t>
+  </si>
+  <si>
+    <t>1. There is a pause button in Gameplay screen.                                                                                   2. When player clicks on the button it pauses the game.                                                                          3. There is a resume button in Gameplay screen.              4. When player clicks on the button it resumes the game.</t>
+  </si>
+  <si>
+    <t>1. The player can go back to the menu, see highscores or play again.                                                                           2. Highscores are shown.</t>
+  </si>
+  <si>
+    <t>As a user I want 3 options in victory screen, go to 'High score', 'Menu' or 'Play again" so that i can see my highscore or go back to main menu and play again.</t>
   </si>
 </sst>
 </file>
@@ -32345,8 +32348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32366,7 +32369,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>1</v>
       </c>
@@ -32391,7 +32394,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>23</v>
@@ -32400,10 +32403,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="41" t="s">
         <v>148</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32411,17 +32414,17 @@
         <v>19</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="46" t="s">
         <v>46</v>
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="47" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32429,7 +32432,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C5" s="46" t="s">
         <v>23</v>
@@ -32438,10 +32441,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32449,7 +32452,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C6" s="46" t="s">
         <v>46</v>
@@ -32458,18 +32461,18 @@
         <v>20</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <v>23</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C7" s="46" t="s">
         <v>53</v>
@@ -32478,13 +32481,13 @@
         <v>13</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="43">
         <v>25</v>
       </c>
@@ -32498,10 +32501,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32518,10 +32521,10 @@
         <v>20</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32530,7 +32533,7 @@
       <c r="C10" s="45"/>
       <c r="D10" s="48"/>
       <c r="E10" s="42" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F10" s="44"/>
     </row>

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="150">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -442,9 +442,6 @@
     <t xml:space="preserve">1. the player can save there current game.                                                                 </t>
   </si>
   <si>
-    <t xml:space="preserve">                                </t>
-  </si>
-  <si>
     <t>1. the player can load previous saved game and play again.</t>
   </si>
   <si>
@@ -485,6 +482,9 @@
   </si>
   <si>
     <t>As a user I want 3 options in victory screen, go to 'High score', 'Menu' or 'Play again" so that i can see my highscore or go back to main menu and play again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. The card must be a normal card.                                         2. The card must be given at the start of every turn.                                                                          3. The amount of cards given must be 1                           4. A player can only have 6 cards                 </t>
   </si>
 </sst>
 </file>
@@ -1151,10 +1151,10 @@
   <dimension ref="A1:AB1006"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1392,7 +1392,9 @@
       <c r="F6" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1602,7 +1604,9 @@
       <c r="F11" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1642,7 +1646,9 @@
       <c r="F12" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -1682,7 +1688,9 @@
       <c r="F13" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -1722,7 +1730,9 @@
       <c r="F14" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1762,7 +1772,9 @@
       <c r="F15" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1802,7 +1814,9 @@
       <c r="F16" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -1842,7 +1856,9 @@
       <c r="F17" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G17" s="2"/>
+      <c r="G17" s="18" t="s">
+        <v>128</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1882,7 +1898,9 @@
       <c r="F18" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="2"/>
+      <c r="G18" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -1922,7 +1940,9 @@
       <c r="F19" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="G19" s="2"/>
+      <c r="G19" s="18" t="s">
+        <v>126</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -31928,8 +31948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F11"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32346,10 +32366,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32394,7 +32414,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>23</v>
@@ -32403,10 +32423,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32421,10 +32441,10 @@
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32441,10 +32461,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32461,10 +32481,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -32481,10 +32501,10 @@
         <v>13</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -32501,7 +32521,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F8" s="47" t="s">
         <v>134</v>
@@ -32521,29 +32541,131 @@
         <v>20</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="44"/>
+      <c r="A10" s="43">
+        <v>3</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="48">
+        <v>20</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="41" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="43"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
+      <c r="A11" s="43">
+        <v>10</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="48">
+        <v>13</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A12" s="43">
+        <v>12</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="48">
+        <v>8</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12" s="41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="43">
+        <v>13</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="48">
+        <v>20</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="43">
+        <v>15</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="48">
+        <v>13</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="43">
+        <v>16</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="48">
+        <v>8</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="146">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -439,12 +439,6 @@
     <t>As a user I want to have a option-button to play against computer.</t>
   </si>
   <si>
-    <t xml:space="preserve">1. the player can save there current game.                                                                 </t>
-  </si>
-  <si>
-    <t>1. the player can load previous saved game and play again.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 Write a code that have 3 buttons: "Main menu, "Highscore", "Play again"                                                                                                                                                    2. Write a code that shows highscores                                                                                        </t>
   </si>
   <si>
@@ -458,12 +452,6 @@
   </si>
   <si>
     <t>1. Write a code that shows a button to play against the computer.</t>
-  </si>
-  <si>
-    <t>1. Write a code that saves the current game</t>
-  </si>
-  <si>
-    <t>1.Write a code that will let the player load the previous saved game</t>
   </si>
   <si>
     <t>1. Button is clickable                                                                  2. Button links to a different page</t>
@@ -1154,7 +1142,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32369,7 +32357,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32414,7 +32402,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C3" s="41" t="s">
         <v>23</v>
@@ -32423,10 +32411,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -32441,10 +32429,10 @@
       </c>
       <c r="D4" s="48"/>
       <c r="E4" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="109.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -32461,10 +32449,10 @@
         <v>20</v>
       </c>
       <c r="E5" s="47" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -32481,10 +32469,10 @@
         <v>20</v>
       </c>
       <c r="E6" s="47" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
@@ -32501,51 +32489,31 @@
         <v>13</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="43">
         <v>25</v>
       </c>
-      <c r="B8" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="48">
-        <v>20</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>141</v>
-      </c>
-      <c r="F8" s="47" t="s">
-        <v>134</v>
-      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
     </row>
     <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>26</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="48">
-        <v>20</v>
-      </c>
-      <c r="E9" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="F9" s="40" t="s">
-        <v>135</v>
-      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
@@ -32604,7 +32572,7 @@
         <v>70</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="146">
   <si>
     <t>SPRINT 1 BACKLOG</t>
   </si>
@@ -1138,11 +1138,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1929,7 +1929,7 @@
         <v>126</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
@@ -32356,8 +32356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32615,25 +32615,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="43">
-        <v>16</v>
-      </c>
-      <c r="B15" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="48">
-        <v>8</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="44" t="s">
-        <v>93</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Ricardini/SprintBacklogGroep5.xlsx
+++ b/Ricardini/SprintBacklogGroep5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PRODUCT BACKLOG" sheetId="1" r:id="rId1"/>
@@ -1138,7 +1138,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB1006"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -32356,8 +32356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -32427,7 +32427,9 @@
       <c r="C4" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="48">
+        <v>8</v>
+      </c>
       <c r="E4" s="47" t="s">
         <v>135</v>
       </c>
@@ -32495,125 +32497,121 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A8" s="43">
-        <v>25</v>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
+        <v>3</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="48">
+        <v>20</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="80.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
-        <v>26</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="48">
+        <v>13</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
-        <v>3</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="48">
-        <v>20</v>
-      </c>
-      <c r="E10" s="47" t="s">
-        <v>112</v>
+        <v>8</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>70</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="81" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="C11" s="45" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="48">
-        <v>13</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="44" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C12" s="35" t="s">
         <v>23</v>
       </c>
       <c r="D12" s="48">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="43">
-        <v>13</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="48">
-        <v>20</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="43">
-        <v>15</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="48">
-        <v>13</v>
-      </c>
-      <c r="E14" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="41" t="s">
         <v>87</v>
       </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="43"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="43"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="43"/>
